--- a/index/Names.xlsx
+++ b/index/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FAEE83-B018-4A96-A512-F49B9854B1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AE628-056A-4D09-91EA-1F5F5F94A338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -660,6 +660,51 @@
   </si>
   <si>
     <t>Satyre, SATYRE, Le Satyre</t>
+  </si>
+  <si>
+    <t>un riche Païsan</t>
+  </si>
+  <si>
+    <t>paysan</t>
+  </si>
+  <si>
+    <t>femme_paysan</t>
+  </si>
+  <si>
+    <t>la fille d’un Gentilhomme, sa femme</t>
+  </si>
+  <si>
+    <t>son beau-père</t>
+  </si>
+  <si>
+    <t>sa belle-mère</t>
+  </si>
+  <si>
+    <t>beau_pere_paysan</t>
+  </si>
+  <si>
+    <t>belle_mere_paysan</t>
+  </si>
+  <si>
+    <t>Bergere</t>
+  </si>
+  <si>
+    <t>bergere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la troupe de Bachus </t>
+  </si>
+  <si>
+    <t>troupe_bachus</t>
+  </si>
+  <si>
+    <t>satyres</t>
+  </si>
+  <si>
+    <t>l'un d'eux</t>
+  </si>
+  <si>
+    <t>un_satyre</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,743 +1174,807 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B79" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>177</v>
+      </c>
+      <c r="B111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>43</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B113" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B105">
-    <sortCondition ref="B105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B113">
+    <sortCondition ref="B113"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/Names.xlsx
+++ b/index/Names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412AE628-056A-4D09-91EA-1F5F5F94A338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F21E2-26D0-46A6-A4B5-D6DF6849F346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
@@ -668,9 +668,6 @@
     <t>paysan</t>
   </si>
   <si>
-    <t>femme_paysan</t>
-  </si>
-  <si>
     <t>la fille d’un Gentilhomme, sa femme</t>
   </si>
   <si>
@@ -680,12 +677,6 @@
     <t>sa belle-mère</t>
   </si>
   <si>
-    <t>beau_pere_paysan</t>
-  </si>
-  <si>
-    <t>belle_mere_paysan</t>
-  </si>
-  <si>
     <t>Bergere</t>
   </si>
   <si>
@@ -705,6 +696,15 @@
   </si>
   <si>
     <t>un_satyre</t>
+  </si>
+  <si>
+    <t>paysan_belle_mere</t>
+  </si>
+  <si>
+    <t>paysan_beau_pere</t>
+  </si>
+  <si>
+    <t>paysan_femme</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>215</v>
@@ -1182,554 +1182,554 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>207</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,10 +1846,10 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,10 +1910,10 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1926,10 +1926,10 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B113">
-    <sortCondition ref="B113"/>
+    <sortCondition ref="B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/index/Names.xlsx
+++ b/index/Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelle/Documents/GitHub/merveilles17/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F21E2-26D0-46A6-A4B5-D6DF6849F346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D19B870-46A8-6A40-9A8B-9BD599299AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Forme normalisée" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -632,18 +624,6 @@
     <t>Apollon, APOLLON, Cette Divinité</t>
   </si>
   <si>
-    <t>Siecle de fer, les quatre Siecles, quatre Ages ou Siécles</t>
-  </si>
-  <si>
-    <t>Siecle d'or, les quatre Siecles, quatre Ages ou Siécles, Siécle d’Or</t>
-  </si>
-  <si>
-    <t>Siecle d'argent, les quatre Siecles, quatre Ages ou Siécles, Argent</t>
-  </si>
-  <si>
-    <t>Siecle d'Airain, LE SIECLE D’AIRAIN,  les quatre Siecles, quatre Ages ou Siécles, Airain</t>
-  </si>
-  <si>
     <t>Page, Vnze Pages, Les Pages des Cheualiers, deux petits Pages, les Pages des Chevaliers</t>
   </si>
   <si>
@@ -705,6 +685,24 @@
   </si>
   <si>
     <t>paysan_femme</t>
+  </si>
+  <si>
+    <t>quatre_siecles</t>
+  </si>
+  <si>
+    <t>Quatre siècles ou quatre âges</t>
+  </si>
+  <si>
+    <t>Siècle d'Airain, Age d'airain</t>
+  </si>
+  <si>
+    <t>Siècle d'argent, Age d'argent</t>
+  </si>
+  <si>
+    <t>Siècle d'or, Age d’or</t>
+  </si>
+  <si>
+    <t>Siècle de fer, Age de fer</t>
   </si>
 </sst>
 </file>
@@ -1056,19 +1054,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75.33203125" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -1092,7 +1090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>198</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1116,7 +1114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>93</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1148,7 +1146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -1156,7 +1154,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1172,15 +1170,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1228,7 +1226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>187</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1244,7 +1242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -1252,15 +1250,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -1268,7 +1266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>150</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>138</v>
       </c>
@@ -1324,7 +1322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -1340,7 +1338,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>155</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>193</v>
       </c>
@@ -1364,7 +1362,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>185</v>
       </c>
@@ -1380,7 +1378,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -1388,7 +1386,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -1396,7 +1394,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -1404,7 +1402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>132</v>
       </c>
@@ -1428,7 +1426,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1436,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +1458,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -1468,7 +1466,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -1484,7 +1482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -1492,490 +1490,499 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>223</v>
+      </c>
+      <c r="B56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>200</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>125</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>75</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>183</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>83</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>175</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>195</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>108</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>167</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>159</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>123</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>141</v>
-      </c>
-      <c r="B73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>207</v>
       </c>
       <c r="B74" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>203</v>
       </c>
       <c r="B75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>204</v>
       </c>
-      <c r="B76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>209</v>
-      </c>
-      <c r="B80" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>119</v>
+      </c>
+      <c r="B100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>212</v>
       </c>
-      <c r="B81" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="B107" t="s">
         <v>213</v>
       </c>
-      <c r="B82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>211</v>
-      </c>
-      <c r="B83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>206</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>6</v>
-      </c>
-      <c r="B87" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>58</v>
-      </c>
-      <c r="B90" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>2</v>
-      </c>
-      <c r="B92" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>113</v>
-      </c>
-      <c r="B95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>208</v>
-      </c>
-      <c r="B97" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>218</v>
-      </c>
-      <c r="B98" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>171</v>
-      </c>
-      <c r="B101" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>97</v>
-      </c>
-      <c r="B104" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
         <v>216</v>
       </c>
-      <c r="B106" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>219</v>
-      </c>
-      <c r="B108" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>72</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>129</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>177</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>179</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>43</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B113">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B114">
     <sortCondition ref="B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/index/Names.xlsx
+++ b/index/Names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelle/Documents/GitHub/merveilles17/index/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D19B870-46A8-6A40-9A8B-9BD599299AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94F82B-1FBC-AC47-80E5-126B8E0EF610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
+    <workbookView xWindow="-340" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Forme normalisée" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -39,21 +39,6 @@
     <t>Quatre autres bergers</t>
   </si>
   <si>
-    <t>Climene (Deux Bergeres)</t>
-  </si>
-  <si>
-    <t>Cloris (Deux Bergeres)</t>
-  </si>
-  <si>
-    <t>Philene (Amans, deux bergers)</t>
-  </si>
-  <si>
-    <t>Tircis (Amans, deux bergers, Amant)</t>
-  </si>
-  <si>
-    <t>Six Batteliers</t>
-  </si>
-  <si>
     <t>Bergers</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>richardet</t>
   </si>
   <si>
-    <t>Oliuier</t>
-  </si>
-  <si>
     <t>olivier</t>
   </si>
   <si>
@@ -168,12 +150,6 @@
     <t>guidon_le_sauvage</t>
   </si>
   <si>
-    <t>Renaud, RENAVD</t>
-  </si>
-  <si>
-    <t>Ariodant, ARIODAN</t>
-  </si>
-  <si>
     <t>le_siecle_d_airain</t>
   </si>
   <si>
@@ -198,15 +174,6 @@
     <t>proprete</t>
   </si>
   <si>
-    <t>la Bonne chere</t>
-  </si>
-  <si>
-    <t>la Propreté</t>
-  </si>
-  <si>
-    <t>l'Abondance</t>
-  </si>
-  <si>
     <t>bonne_chere</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>aristomene</t>
   </si>
   <si>
-    <t>Moron</t>
-  </si>
-  <si>
     <t>moron</t>
   </si>
   <si>
@@ -267,60 +231,15 @@
     <t>dirce</t>
   </si>
   <si>
-    <t>Alcine, Magicienne</t>
-  </si>
-  <si>
     <t>l_aurore</t>
   </si>
   <si>
-    <t>l'Aurore, Aurore, L'AURORE</t>
-  </si>
-  <si>
     <t>Lyciscas</t>
   </si>
   <si>
     <t>lyciscas</t>
   </si>
   <si>
-    <t>Cinthie, CINTHIE</t>
-  </si>
-  <si>
-    <t>L'Automne, Les Saisons, Les quatre Saisons, L'AUTOMNE</t>
-  </si>
-  <si>
-    <t>Le Printemps, Les Saisons, Les quatre Saisons, PRINTEMPS</t>
-  </si>
-  <si>
-    <t>L'Esté, Les Saisons, Les quatre Saisons, L'ESTE</t>
-  </si>
-  <si>
-    <t>L'Hyver, Les Saisons, Les quatre Saisons, L'HYVER</t>
-  </si>
-  <si>
-    <t>PHILIS, Philis</t>
-  </si>
-  <si>
-    <t>Roland, ROLAND</t>
-  </si>
-  <si>
-    <t>La Princesse d'Elide, La Princesse, LA PRINCESSE D'ELIDE</t>
-  </si>
-  <si>
-    <t>Aristomene, Prince de Messne, ARISTOMENE, Souverains de Messene, de Messne</t>
-  </si>
-  <si>
-    <t>Euriale, Prince d'Ithaque, Le Prince, Ieune Prince, Prince, EURIALE, d'Ithaque, ce Prince</t>
-  </si>
-  <si>
-    <t>Aglante, AGLANTE, la Princesse Aglante</t>
-  </si>
-  <si>
-    <t>Iphitas, Prince, Le Prince, Roy, Le Prince Iphitas, IPHITAS, Roy son pere, Prince vostre pere</t>
-  </si>
-  <si>
-    <t>Theocle, Prince de Pyle, THEOCLE, de Pyle, Princes de Pyle, Theocles</t>
-  </si>
-  <si>
     <t>Deux Bergeres</t>
   </si>
   <si>
@@ -339,21 +258,9 @@
     <t>melisse</t>
   </si>
   <si>
-    <t>Célie, Deux des Nymphes, CELIE</t>
-  </si>
-  <si>
-    <t>Dircé, Deux des Nymphes, DIRCE</t>
-  </si>
-  <si>
-    <t>Quatre Géants, GEANTS</t>
-  </si>
-  <si>
     <t>geants</t>
   </si>
   <si>
-    <t>Quatre Nains, NAINS</t>
-  </si>
-  <si>
     <t>nains</t>
   </si>
   <si>
@@ -363,21 +270,12 @@
     <t>demons_sauteurs</t>
   </si>
   <si>
-    <t>AUTRES DEMONS SAUTEURS, D'autres Démons</t>
-  </si>
-  <si>
-    <t>Roger, Chevalier</t>
-  </si>
-  <si>
     <t>chevaliers</t>
   </si>
   <si>
     <t>ecuyers</t>
   </si>
   <si>
-    <t>Guidon le sauuage, Guidon le sauvage, Guidon</t>
-  </si>
-  <si>
     <t>mores</t>
   </si>
   <si>
@@ -387,45 +285,21 @@
     <t>Six Chevaliers, six des Chevaliers</t>
   </si>
   <si>
-    <t>MONSTRES, monstres</t>
-  </si>
-  <si>
     <t>monstres</t>
   </si>
   <si>
-    <t>MELISSE, Melisse</t>
-  </si>
-  <si>
-    <t>Oger le danois, Ce Paladin, Ogier le danois</t>
-  </si>
-  <si>
-    <t>Aquilant, AQVILANT LE NOIR, Aquilant le Noir</t>
-  </si>
-  <si>
-    <t>le Temps</t>
-  </si>
-  <si>
     <t>le_temps</t>
   </si>
   <si>
-    <t>la Ioye, la Joye</t>
-  </si>
-  <si>
     <t>valets_de_chien</t>
   </si>
   <si>
     <t>quatre Valets de Chien, Tous ensemble, Valets de chien, six Valets de Chien</t>
   </si>
   <si>
-    <t>MORES, Huit Mores, HVIct Maures, Maures</t>
-  </si>
-  <si>
     <t>heraut_d_armes</t>
   </si>
   <si>
-    <t>Un Héraut d'Armes, Héraut d'Armes</t>
-  </si>
-  <si>
     <t>le_siecle_d_or</t>
   </si>
   <si>
@@ -438,21 +312,12 @@
     <t>apollon</t>
   </si>
   <si>
-    <t>Pan, PAN</t>
-  </si>
-  <si>
-    <t>Diane, DIANE</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
     <t>diane</t>
   </si>
   <si>
-    <t>Deux Ours</t>
-  </si>
-  <si>
     <t>ours</t>
   </si>
   <si>
@@ -462,9 +327,6 @@
     <t>satyre</t>
   </si>
   <si>
-    <t>Deux Pastres</t>
-  </si>
-  <si>
     <t>pastres</t>
   </si>
   <si>
@@ -474,12 +336,6 @@
     <t>deux_bergers</t>
   </si>
   <si>
-    <t>Arbate, Arbale Gouuerneur du Prince d’Ithaque</t>
-  </si>
-  <si>
-    <t>DEMONS AGILES, Demons Agiles, Demons agilles</t>
-  </si>
-  <si>
     <t>page_du_roi</t>
   </si>
   <si>
@@ -492,15 +348,6 @@
     <t>douze_zodiaque</t>
   </si>
   <si>
-    <t>Les douze Signes du Zodiaque, des douze Signes du Zodiaque</t>
-  </si>
-  <si>
-    <t>Les douzes heures, des douze heures du jour</t>
-  </si>
-  <si>
-    <t>Vingt Pasteur</t>
-  </si>
-  <si>
     <t>pasteur</t>
   </si>
   <si>
@@ -549,24 +396,9 @@
     <t>jardiniers</t>
   </si>
   <si>
-    <t>Douze Iardiniers</t>
-  </si>
-  <si>
-    <t>douze Moissonneurs</t>
-  </si>
-  <si>
     <t>moissonneurs</t>
   </si>
   <si>
-    <t>douze Vandangeurs</t>
-  </si>
-  <si>
-    <t>vandangeurs</t>
-  </si>
-  <si>
-    <t>douze Vieillards</t>
-  </si>
-  <si>
     <t>vieillards</t>
   </si>
   <si>
@@ -582,9 +414,6 @@
     <t>lycas</t>
   </si>
   <si>
-    <t>Seize Faunes</t>
-  </si>
-  <si>
     <t>faunes</t>
   </si>
   <si>
@@ -606,45 +435,18 @@
     <t>atlas</t>
   </si>
   <si>
-    <t>ECUYERS, Escuyers</t>
-  </si>
-  <si>
     <t>musiciens</t>
   </si>
   <si>
-    <t>Musiciens, MVSICIENS</t>
-  </si>
-  <si>
     <t>Angelique</t>
   </si>
   <si>
     <t>angelique</t>
   </si>
   <si>
-    <t>Apollon, APOLLON, Cette Divinité</t>
-  </si>
-  <si>
-    <t>Page, Vnze Pages, Les Pages des Cheualiers, deux petits Pages, les Pages des Chevaliers</t>
-  </si>
-  <si>
-    <t>Page, Les Pages des Cheualiers, Dix-huit Pages du Roy</t>
-  </si>
-  <si>
-    <t>Chevaliers, CHEVALIERS, Cheualiers, Guerriers, Cheualliers, Tous les chevaliers</t>
-  </si>
-  <si>
     <t>Huict paysans, huit Païsans</t>
   </si>
   <si>
-    <t>UN OURS, Monsieur l'Ours</t>
-  </si>
-  <si>
-    <t>Satyre, SATYRE, Le Satyre</t>
-  </si>
-  <si>
-    <t>un riche Païsan</t>
-  </si>
-  <si>
     <t>paysan</t>
   </si>
   <si>
@@ -657,9 +459,6 @@
     <t>sa belle-mère</t>
   </si>
   <si>
-    <t>Bergere</t>
-  </si>
-  <si>
     <t>bergere</t>
   </si>
   <si>
@@ -703,6 +502,294 @@
   </si>
   <si>
     <t>Siècle de fer, Age de fer</t>
+  </si>
+  <si>
+    <t>quatre_saisons</t>
+  </si>
+  <si>
+    <t>Les Plaisirs</t>
+  </si>
+  <si>
+    <t>les_plaisirs</t>
+  </si>
+  <si>
+    <t>les_jeux</t>
+  </si>
+  <si>
+    <t>Les Ris</t>
+  </si>
+  <si>
+    <t>Les Jeux</t>
+  </si>
+  <si>
+    <t>les_ris</t>
+  </si>
+  <si>
+    <t>Les Délices</t>
+  </si>
+  <si>
+    <t>les_delices</t>
+  </si>
+  <si>
+    <t>Bellone</t>
+  </si>
+  <si>
+    <t>bellone</t>
+  </si>
+  <si>
+    <t>L'Amour</t>
+  </si>
+  <si>
+    <t>amour</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>La Renommée</t>
+  </si>
+  <si>
+    <t>renommee</t>
+  </si>
+  <si>
+    <t>L'Abondance</t>
+  </si>
+  <si>
+    <t>Alcine</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aquilant le Noir</t>
+  </si>
+  <si>
+    <t>Ariodant</t>
+  </si>
+  <si>
+    <t>Batteliers</t>
+  </si>
+  <si>
+    <t>Bergère</t>
+  </si>
+  <si>
+    <t>La Bonne chère</t>
+  </si>
+  <si>
+    <t>Célie</t>
+  </si>
+  <si>
+    <t>Chevaliers</t>
+  </si>
+  <si>
+    <t>Climène</t>
+  </si>
+  <si>
+    <t>Cloris</t>
+  </si>
+  <si>
+    <t>Démons agiles</t>
+  </si>
+  <si>
+    <t>Démons sauteurs</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Dircé</t>
+  </si>
+  <si>
+    <t>Les Heures</t>
+  </si>
+  <si>
+    <t>Les douze Signes du Zodiaque</t>
+  </si>
+  <si>
+    <t>Escuyers</t>
+  </si>
+  <si>
+    <t>Faunes</t>
+  </si>
+  <si>
+    <t>Géants</t>
+  </si>
+  <si>
+    <t>Guidon le sauvage</t>
+  </si>
+  <si>
+    <t>Héraut d'armes</t>
+  </si>
+  <si>
+    <t>Jardiniers</t>
+  </si>
+  <si>
+    <t>La Joie</t>
+  </si>
+  <si>
+    <t>L' Aurore</t>
+  </si>
+  <si>
+    <t>Les Saisons</t>
+  </si>
+  <si>
+    <t>L'Automne</t>
+  </si>
+  <si>
+    <t>L'Eté</t>
+  </si>
+  <si>
+    <t>L'Hiver</t>
+  </si>
+  <si>
+    <t>Le Printemps</t>
+  </si>
+  <si>
+    <t>Le Temps</t>
+  </si>
+  <si>
+    <t>Mélisse</t>
+  </si>
+  <si>
+    <t>Moissonneurs</t>
+  </si>
+  <si>
+    <t>Monstres</t>
+  </si>
+  <si>
+    <t>Maures</t>
+  </si>
+  <si>
+    <t>Musiciens</t>
+  </si>
+  <si>
+    <t>Nains</t>
+  </si>
+  <si>
+    <t>Oger ou Ogier le danois</t>
+  </si>
+  <si>
+    <t>Olivier</t>
+  </si>
+  <si>
+    <t>Ours</t>
+  </si>
+  <si>
+    <t>Page(s)</t>
+  </si>
+  <si>
+    <t>Page(s) du Roy</t>
+  </si>
+  <si>
+    <t>Pan</t>
+  </si>
+  <si>
+    <t>Pasteur(s)</t>
+  </si>
+  <si>
+    <t>Pastre(s)</t>
+  </si>
+  <si>
+    <t>Paysan</t>
+  </si>
+  <si>
+    <t>Philène</t>
+  </si>
+  <si>
+    <t>La Princesse d'Elide</t>
+  </si>
+  <si>
+    <t>La Propreté</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Satyre(s)</t>
+  </si>
+  <si>
+    <t>Théocle, prince de Pyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tircis </t>
+  </si>
+  <si>
+    <t>Vendangeurs</t>
+  </si>
+  <si>
+    <t>vendangeurs</t>
+  </si>
+  <si>
+    <t>Vieillards</t>
+  </si>
+  <si>
+    <t>Hymène</t>
+  </si>
+  <si>
+    <t>hymene</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Charlemagne</t>
+  </si>
+  <si>
+    <t>charlemagne</t>
+  </si>
+  <si>
+    <t>Charles Quint</t>
+  </si>
+  <si>
+    <t>charles_quint</t>
+  </si>
+  <si>
+    <t>Iphitas, père de la princesse d'Elide</t>
+  </si>
+  <si>
+    <t>Aristomène, Prince de Messène</t>
+  </si>
+  <si>
+    <t>Arbate, gouverneur du Prince d’Ithaque</t>
+  </si>
+  <si>
+    <t>Aglante, cousine de la princesse d'Elide</t>
+  </si>
+  <si>
+    <t>Cinthie, cousine de la princesse</t>
+  </si>
+  <si>
+    <t>Euryale, prince d'Ithaque</t>
+  </si>
+  <si>
+    <t>Moron, plaisant de la princesse d'Elide</t>
+  </si>
+  <si>
+    <t>Philis, suivante de la princesse d'Elide</t>
+  </si>
+  <si>
+    <t>La Victoire</t>
+  </si>
+  <si>
+    <t>victoire</t>
+  </si>
+  <si>
+    <t>La France</t>
+  </si>
+  <si>
+    <t>France</t>
   </si>
 </sst>
 </file>
@@ -718,12 +805,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -738,8 +831,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,6 +849,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CBB2A70-9830-3D4A-BE00-61CDC78BCC20}" name="Tableau1" displayName="Tableau1" ref="A1:B139" totalsRowShown="0">
+  <autoFilter ref="A1:B139" xr:uid="{4B8C3DCC-3D9F-1440-8D97-D9045531A550}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B128">
+    <sortCondition ref="B1:B139"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A7D38447-0688-6947-BDF3-455C3A34F473}" name="Colonne1"/>
+    <tableColumn id="2" xr3:uid="{29E01546-62E7-8443-9F68-BD6B8EB905B7}" name="Colonne2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1054,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1068,263 +1176,263 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>99</v>
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" t="s">
-        <v>170</v>
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" t="s">
-        <v>188</v>
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
+      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
+      <c r="A23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1332,657 +1440,772 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" t="s">
-        <v>154</v>
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>190</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>55</v>
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
+        <v>211</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>64</v>
+      <c r="A89" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
+      <c r="A90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>58</v>
-      </c>
-      <c r="B91" t="s">
-        <v>56</v>
+      <c r="A91" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>23</v>
+      <c r="A92" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" t="s">
-        <v>22</v>
+      <c r="A93" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>47</v>
-      </c>
-      <c r="B94" t="s">
-        <v>31</v>
+      <c r="A94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" t="s">
-        <v>39</v>
+      <c r="A95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>91</v>
-      </c>
-      <c r="B97" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>171</v>
-      </c>
-      <c r="B102" t="s">
-        <v>172</v>
+      <c r="A102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>14</v>
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>129</v>
-      </c>
-      <c r="B111" t="s">
-        <v>128</v>
+      <c r="A111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" t="s">
-        <v>178</v>
+      <c r="A112" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>179</v>
-      </c>
-      <c r="B113" t="s">
-        <v>180</v>
+      <c r="A113" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" t="s">
-        <v>44</v>
+      <c r="A114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B114">
-    <sortCondition ref="B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B115">
+    <sortCondition ref="B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/index/Names.xlsx
+++ b/index/Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaelle/Documents/GitHub/merveilles17/index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\merveilles17\index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F94F82B-1FBC-AC47-80E5-126B8E0EF610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB260C-D442-4E9E-88D7-E07EF76E1AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
+    <workbookView xWindow="5400" yWindow="3048" windowWidth="17280" windowHeight="8964" xr2:uid="{DABAB01A-06B8-4EBF-A2CE-941B25EA6D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Forme normalisée" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="257">
   <si>
     <t>Un suivant de Bacchus</t>
   </si>
@@ -790,6 +790,12 @@
   </si>
   <si>
     <t>France</t>
+  </si>
+  <si>
+    <t>les Chasseurs</t>
+  </si>
+  <si>
+    <t>chasseurs</t>
   </si>
 </sst>
 </file>
@@ -1162,19 +1168,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7E463-6792-499C-A860-8E1BC2B31262}">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75.33203125" customWidth="1"/>
     <col min="2" max="2" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>237</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -1230,7 +1236,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>245</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>183</v>
       </c>
@@ -1358,7 +1364,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -1366,7 +1372,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -1390,7 +1396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>185</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>247</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>186</v>
       </c>
@@ -1422,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>188</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>190</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>248</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>195</v>
       </c>
@@ -1526,7 +1532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>253</v>
       </c>
@@ -1534,7 +1540,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>196</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>110</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -1574,7 +1580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>198</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>235</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>243</v>
       </c>
@@ -1598,7 +1604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>199</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -1630,7 +1636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>205</v>
       </c>
@@ -1646,7 +1652,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>206</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>156</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>157</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -1686,7 +1692,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -1702,7 +1708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -1710,7 +1716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -1726,7 +1732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -1734,7 +1740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>208</v>
       </c>
@@ -1766,7 +1772,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>209</v>
       </c>
@@ -1774,7 +1780,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>249</v>
       </c>
@@ -1798,7 +1804,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -1830,7 +1836,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>215</v>
       </c>
@@ -1846,7 +1852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>216</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>219</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>220</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>221</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>222</v>
       </c>
@@ -1902,7 +1908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>142</v>
       </c>
@@ -1910,7 +1916,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>143</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>141</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>139</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>114</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>250</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>225</v>
       </c>
@@ -1982,7 +1988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -2006,7 +2012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>154</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>226</v>
       </c>
@@ -2022,7 +2028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>227</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>228</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>229</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>147</v>
       </c>
@@ -2070,7 +2076,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>85</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>125</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>230</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>231</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>145</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>148</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>60</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>89</v>
       </c>
@@ -2166,7 +2172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>232</v>
       </c>
@@ -2174,7 +2180,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -2182,7 +2188,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>234</v>
       </c>
@@ -2190,12 +2196,20 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>37</v>
       </c>
       <c r="B128" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
